--- a/صيدليات دكتور مصطفي طلعت_2026-01-03_12-36.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-03_12-36.xlsx
@@ -98,6 +98,9 @@
     <t>DRAMENEX 50MG 20 TABS.</t>
   </si>
   <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
     <t>GOURYST 0.5 MG 100 TABS.</t>
   </si>
   <si>
@@ -156,6 +159,9 @@
   </si>
   <si>
     <t>4:0</t>
+  </si>
+  <si>
+    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
   </si>
   <si>
     <t>PULMICORT 0.25MG/ML 20 NEBULIZER VIAL SUSP.</t>
@@ -1140,17 +1146,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="10">
-        <v>0.10000000000000001</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1158,7 +1164,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1166,17 +1172,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="10">
-        <v>0.20000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1184,7 +1190,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1192,17 +1198,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="10">
-        <v>1</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1218,13 +1224,13 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="10">
@@ -1244,13 +1250,13 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="10">
@@ -1262,7 +1268,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1270,17 +1276,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1288,7 +1294,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1296,17 +1302,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="10">
-        <v>0.17000000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1314,7 +1320,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1322,17 +1328,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>332</v>
+        <v>11</v>
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="10">
-        <v>1</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1340,7 +1346,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1348,13 +1354,13 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>31</v>
+        <v>332</v>
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="10">
@@ -1366,7 +1372,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1374,17 +1380,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="10">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1392,7 +1398,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1400,17 +1406,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="10">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1418,7 +1424,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1426,17 +1432,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>169.19999999999999</v>
+        <v>32</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="10">
-        <v>0.29999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1444,7 +1450,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1452,13 +1458,13 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>73.319999999999993</v>
+        <v>80</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="10">
@@ -1470,7 +1476,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1478,17 +1484,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>45.5</v>
+        <v>169.19999999999999</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.29999999999999999</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1496,7 +1502,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1504,13 +1510,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>116</v>
+        <v>73.319999999999993</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="10">
@@ -1522,7 +1528,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1530,17 +1536,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>30</v>
+        <v>45.5</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="10">
-        <v>0.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1556,17 +1562,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1574,7 +1580,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1582,17 +1588,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="M34" s="9"/>
       <c r="N34" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1600,7 +1606,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1608,17 +1614,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1626,7 +1632,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1634,17 +1640,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1652,7 +1658,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1660,13 +1666,13 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="10">
@@ -1678,7 +1684,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1686,51 +1692,103 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" ht="24.75" customHeight="1">
+      <c r="A39" s="6">
+        <v>36</v>
+      </c>
+      <c t="s" r="B39" s="7">
+        <v>65</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c t="s" r="H39" s="8">
+        <v>66</v>
+      </c>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="9">
+        <v>2</v>
+      </c>
+      <c r="M39" s="9"/>
+      <c r="N39" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="39" ht="25.5" customHeight="1">
-      <c r="K39" s="11">
-        <v>1739.27</v>
-      </c>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="12">
-        <v>66</v>
-      </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c t="s" r="F40" s="13">
+    <row r="40" ht="25.5" customHeight="1">
+      <c r="A40" s="6">
+        <v>37</v>
+      </c>
+      <c t="s" r="B40" s="7">
         <v>67</v>
       </c>
-      <c r="G40" s="13"/>
-      <c r="H40" s="14"/>
-      <c t="s" r="I40" s="15">
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c t="s" r="H40" s="8">
+        <v>62</v>
+      </c>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="9">
+        <v>27</v>
+      </c>
+      <c r="M40" s="9"/>
+      <c r="N40" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="K41" s="11">
+        <v>1863.27</v>
+      </c>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="12">
         <v>68</v>
       </c>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c t="s" r="F42" s="13">
+        <v>69</v>
+      </c>
+      <c r="G42" s="13"/>
+      <c r="H42" s="14"/>
+      <c t="s" r="I42" s="15">
+        <v>70</v>
+      </c>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="116">
+  <mergeCells count="122">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1843,10 +1901,16 @@
     <mergeCell ref="B38:G38"/>
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="I40:N40"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="I42:N42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
